--- a/q_per_all.xlsx
+++ b/q_per_all.xlsx
@@ -1,28 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESA757383\Documents\GitHub\MyPortfolio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5BF7F1-9DD5-4201-919E-9D5340C61BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="q_per_all"/>
+    <sheet name="q_per_all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="q_per_all">'q_per_all'!$A$1:$C$12</definedName>
+    <definedName name="q_per_all">q_per_all!$A$1:$C$12</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+  <si>
+    <t>D_YEAR</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Cnt</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -55,13 +105,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -99,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -133,6 +191,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -167,9 +226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -342,198 +402,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>D_YEAR</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>Cnt</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="C2" s="0">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>18</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C3" s="0">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>36</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="C4" s="0">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>47</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C5" s="0">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>1522</v>
       </c>
     </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C6" s="0">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>1585</v>
       </c>
     </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C7" s="0">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>1956</v>
       </c>
     </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="C8" s="0">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C9" s="0">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
         <v>3374</v>
       </c>
     </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C10" s="0">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>3399</v>
       </c>
     </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C11" s="0">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>3907</v>
       </c>
     </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C12" s="0">
-        <v>1550</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;K626469 General</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>